--- a/SubbvaSalud/data/formatoInforme.xlsx
+++ b/SubbvaSalud/data/formatoInforme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\subbvadb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +344,2915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="L1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O80" workbookViewId="0">
+      <selection activeCell="U91" sqref="U91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
+        <v>0</v>
+      </c>
+      <c r="S87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>0</v>
+      </c>
+      <c r="S89" t="s">
+        <v>0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>0</v>
+      </c>
+      <c r="R90" t="s">
+        <v>0</v>
+      </c>
+      <c r="S90" t="s">
+        <v>0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" t="s">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>0</v>
+      </c>
+      <c r="S93" t="s">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>0</v>
+      </c>
+      <c r="S94" t="s">
+        <v>0</v>
+      </c>
+      <c r="T94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" t="s">
+        <v>0</v>
+      </c>
+      <c r="T95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
+        <v>0</v>
+      </c>
+      <c r="T97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" t="s">
+        <v>0</v>
+      </c>
+      <c r="T98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
+        <v>0</v>
+      </c>
+      <c r="S99" t="s">
+        <v>0</v>
+      </c>
+      <c r="T99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" t="s">
+        <v>0</v>
+      </c>
+      <c r="T100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>